--- a/db_excel_files/Company-data.xlsx
+++ b/db_excel_files/Company-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guys_Mac/Desktop/Columbia Classes/Cloud Apps Microservices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiabeiyu/Desktop/Microservices-develop/db_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="880" windowWidth="27760" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="6720" yWindow="1080" windowWidth="16640" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -44,63 +44,21 @@
     <t>facebook</t>
   </si>
   <si>
-    <t>c1be5699-c1cd-46c7-b943-0528ba00acdd</t>
-  </si>
-  <si>
     <t>social media</t>
   </si>
   <si>
     <t>microsoft</t>
   </si>
   <si>
-    <t>63a88844-495d-42b4-b387-aaa7a79b1d12</t>
-  </si>
-  <si>
     <t>tech</t>
   </si>
   <si>
     <t>uber</t>
   </si>
   <si>
-    <t>d7362305-3dba-4258-82e1-6befd29889e8</t>
-  </si>
-  <si>
     <t>snapchat</t>
   </si>
   <si>
-    <t>a622f357-b1ea-413c-b9d6-a61c429b7369</t>
-  </si>
-  <si>
-    <t>43fd948e-b666-40ee-809a-fa2c4a15b46c</t>
-  </si>
-  <si>
-    <t>f261accb-077f-4d8b-b54e-dd5ba63cee5b</t>
-  </si>
-  <si>
-    <t>aab5b837-37f8-407e-9c14-b3723328289d</t>
-  </si>
-  <si>
-    <t>d3cee9c8-fe95-4ce6-aebf-b2f3dc8383bf</t>
-  </si>
-  <si>
-    <t>229c620b-545a-4c78-b6f6-e27004b42dcb</t>
-  </si>
-  <si>
-    <t>f7c37308-030d-4d0c-9ab4-88579374ca04</t>
-  </si>
-  <si>
-    <t>c0f3b8a7-4e35-48f0-a86c-3a7020a6d758</t>
-  </si>
-  <si>
-    <t>de5ae0bc-30bb-4834-979b-2923823a4524</t>
-  </si>
-  <si>
-    <t>3f58d640-12f9-4ea9-9d11-9b905cc7aa88</t>
-  </si>
-  <si>
-    <t>5bcaa9bd-e315-427d-93cf-2d027cc1b6e2</t>
-  </si>
-  <si>
     <t>pepsi</t>
   </si>
   <si>
@@ -167,48 +125,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>(675) 654-4213</t>
-  </si>
-  <si>
-    <t>(123) 456-7890</t>
-  </si>
-  <si>
-    <t>(122) 556-7890</t>
-  </si>
-  <si>
-    <t>(123) 456-7891</t>
-  </si>
-  <si>
-    <t>(123) 456-7892</t>
-  </si>
-  <si>
-    <t>(123) 456-7893</t>
-  </si>
-  <si>
-    <t>(123) 456-7894</t>
-  </si>
-  <si>
-    <t>(123) 456-7895</t>
-  </si>
-  <si>
-    <t>(123) 456-7896</t>
-  </si>
-  <si>
-    <t>(123) 456-7897</t>
-  </si>
-  <si>
-    <t>(123) 456-7898</t>
-  </si>
-  <si>
-    <t>(123) 456-7899</t>
-  </si>
-  <si>
-    <t>(123) 456-7900</t>
-  </si>
-  <si>
-    <t>(123) 456-7901</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -266,9 +182,6 @@
     <t>(111) 456-7892</t>
   </si>
   <si>
-    <t>(111) 456-7893</t>
-  </si>
-  <si>
     <t>(111) 456-7894</t>
   </si>
   <si>
@@ -284,13 +197,97 @@
     <t>(111) 456-7898</t>
   </si>
   <si>
-    <t>(111) 456-7899</t>
-  </si>
-  <si>
     <t>(111) 456-7900</t>
   </si>
   <si>
     <t>(111) 456-7901</t>
+  </si>
+  <si>
+    <t>(425) 703-6214</t>
+  </si>
+  <si>
+    <t>(650) 543-4800</t>
+  </si>
+  <si>
+    <t>(415) 986-2715</t>
+  </si>
+  <si>
+    <t>(310) 399-3339</t>
+  </si>
+  <si>
+    <t>(914) 253-2000</t>
+  </si>
+  <si>
+    <t>(425) 313-8100</t>
+  </si>
+  <si>
+    <t>(425) 313-8103</t>
+  </si>
+  <si>
+    <t>(206) 266-1000</t>
+  </si>
+  <si>
+    <t>(877) 448-4820</t>
+  </si>
+  <si>
+    <t>(479) 273-4000</t>
+  </si>
+  <si>
+    <t>(612) 291-1000</t>
+  </si>
+  <si>
+    <t>(408) 996-1010</t>
+  </si>
+  <si>
+    <t>(650) 253-0000</t>
+  </si>
+  <si>
+    <t>(415) 222-9670</t>
+  </si>
+  <si>
+    <t>(650) 253-0001</t>
+  </si>
+  <si>
+    <t>70d16ff2-15e8-4a41-ab94-6676b14b904b</t>
+  </si>
+  <si>
+    <t>d12328d3-83dd-49b6-8099-daf3426d9721</t>
+  </si>
+  <si>
+    <t>3210d5df-f15c-4a4f-ac43-1a9a592d8303</t>
+  </si>
+  <si>
+    <t>9df10925-861a-4d1d-98ee-101332320c1f</t>
+  </si>
+  <si>
+    <t>2057eacb-0271-4906-808a-9fe297fddd85</t>
+  </si>
+  <si>
+    <t>949b0cd9-c6c4-4c6f-81de-19ad8b38776c</t>
+  </si>
+  <si>
+    <t>f3c25fef-6ff6-4fa2-8a29-181edfc7d889</t>
+  </si>
+  <si>
+    <t>f2617975-565d-4363-832c-c480ad90d2b5</t>
+  </si>
+  <si>
+    <t>8bcdfc15-cc1a-4eaa-8136-41cc1a3f689e</t>
+  </si>
+  <si>
+    <t>b5aa62c9-b130-4d9a-898e-578f1b0d614c</t>
+  </si>
+  <si>
+    <t>43b99774-9d8c-429d-9a2c-1a1c064f310e</t>
+  </si>
+  <si>
+    <t>ae76204e-8cc0-451b-9392-ad872b3960a6</t>
+  </si>
+  <si>
+    <t>6d20e2a8-74c4-4bdc-9d13-79a3efcf5af6</t>
+  </si>
+  <si>
+    <t>9a0c24bf-4dd1-4d9a-954d-3a38f28c8ba0</t>
   </si>
 </sst>
 </file>
@@ -326,8 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +606,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,13 +632,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -650,20 +648,20 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -671,22 +669,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -694,22 +692,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -717,22 +715,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -740,22 +738,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -763,22 +761,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -786,22 +784,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -809,22 +807,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -832,22 +830,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -855,22 +853,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -878,22 +876,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -901,22 +899,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -924,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -947,25 +945,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>